--- a/output/below_50/tRNA-Asp-GTC-2-11.xlsx
+++ b/output/below_50/tRNA-Asp-GTC-2-11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>chr17</t>
   </si>
@@ -264,252 +264,6 @@
   </si>
   <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>8125606</t>
-  </si>
-  <si>
-    <t>8125629</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>TCACCACTATACTAACGAGG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>39% (40)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 92%, Moreno-Mateos: 39%</t>
-  </si>
-  <si>
-    <t>54623213287</t>
-  </si>
-  <si>
-    <t>8125630</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>8125627</t>
-  </si>
-  <si>
-    <t>CACCACTATACTAACGAGGA</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 27, Doench 2016: 81%, Moreno-Mateos: 23%</t>
-  </si>
-  <si>
-    <t>2.78846E+11</t>
-  </si>
-  <si>
-    <t>8125648</t>
-  </si>
-  <si>
-    <t>8125671</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>8125651</t>
-  </si>
-  <si>
-    <t>AAAGTCTCAGATCAAGGATT</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 50%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>1.66675E+11</t>
-  </si>
-  <si>
-    <t>8125919</t>
-  </si>
-  <si>
-    <t>8125942</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>8125939</t>
-  </si>
-  <si>
-    <t>GAGACACCAGGAAGGAAGTC</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 38%, Moreno-Mateos: 50%</t>
-  </si>
-  <si>
-    <t>1375804207</t>
-  </si>
-  <si>
-    <t>8125925</t>
-  </si>
-  <si>
-    <t>8125948</t>
-  </si>
-  <si>
-    <t>8125928</t>
-  </si>
-  <si>
-    <t>CTGCTTCCTGACTTCCTTCC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>2% (18)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 2%, Moreno-Mateos: 80%</t>
-  </si>
-  <si>
-    <t>8125930</t>
-  </si>
-  <si>
-    <t>8125953</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>8125950</t>
-  </si>
-  <si>
-    <t>AAGGAAGTCAGGAAGCAGAA</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 22, Doench 2016: 63%, Moreno-Mateos: 59%</t>
-  </si>
-  <si>
-    <t>1.57186E+11</t>
-  </si>
-  <si>
-    <t>8125931</t>
-  </si>
-  <si>
-    <t>8125954</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>8125951</t>
-  </si>
-  <si>
-    <t>AGGAAGTCAGGAAGCAGAAA</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 18, Doench 2016: 43%, Moreno-Mateos: 57%</t>
-  </si>
-  <si>
-    <t>2.6587E+11</t>
-  </si>
-  <si>
-    <t>8125934</t>
-  </si>
-  <si>
-    <t>8125957</t>
-  </si>
-  <si>
-    <t>AAGTCAGGAAGCAGAAAGGG</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 21, Doench 2016: 75%, Moreno-Mateos: 80%</t>
-  </si>
-  <si>
-    <t>10773901678</t>
-  </si>
-  <si>
-    <t>8125935</t>
-  </si>
-  <si>
-    <t>8125958</t>
-  </si>
-  <si>
-    <t>8125955</t>
-  </si>
-  <si>
-    <t>AGTCAGGAAGCAGAAAGGGA</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 16, Doench 2016: 86%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>1.33709E+11</t>
   </si>
 </sst>
 </file>
@@ -554,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1209,537 +963,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" t="s">
-        <v>91</v>
-      </c>
-      <c r="S12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" t="s">
-        <v>120</v>
-      </c>
-      <c r="S15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" t="s">
-        <v>138</v>
-      </c>
-      <c r="S17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>146</v>
-      </c>
-      <c r="R18" t="s">
-        <v>147</v>
-      </c>
-      <c r="S18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>154</v>
-      </c>
-      <c r="R19" t="s">
-        <v>155</v>
-      </c>
-      <c r="S19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" t="s">
-        <v>162</v>
-      </c>
-      <c r="P20" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>109</v>
-      </c>
-      <c r="R20" t="s">
-        <v>164</v>
-      </c>
-      <c r="S20" t="s">
-        <v>165</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
